--- a/VitalSigns/CurrentBuild/observations-summary.xlsx
+++ b/VitalSigns/CurrentBuild/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="46">
   <si>
     <t>Profile</t>
   </si>
@@ -122,6 +122,15 @@
     <t>null#8867-4</t>
   </si>
   <si>
+    <t>NoDomainVitalSignsObservationOxygenSaturation</t>
+  </si>
+  <si>
+    <t>NO Domain VitalSigns Observation - Oxygen Saturation</t>
+  </si>
+  <si>
+    <t>null#2708-6</t>
+  </si>
+  <si>
     <t>NoDomainVitalSignsObservationPulse</t>
   </si>
   <si>
@@ -129,6 +138,9 @@
   </si>
   <si>
     <t>null#78564009</t>
+  </si>
+  <si>
+    <t>Quantityĵ, CodeableConceptĵ, stringĵ, booleanĵ, integerĵ, Rangeĵ, Ratioĵ, SampledDataĵ, timeĵ, dateTimeĵ, Periodĵ</t>
   </si>
   <si>
     <t>NoDomainVitalSignsObservationRespirationRate</t>
@@ -271,7 +283,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -685,7 +697,7 @@
         <v>17</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>19</v>
@@ -694,6 +706,41 @@
         <v>14</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/VitalSigns/CurrentBuild/observations-summary.xlsx
+++ b/VitalSigns/CurrentBuild/observations-summary.xlsx
@@ -271,10 +271,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/VitalSigns/CurrentBuild/observations-summary.xlsx
+++ b/VitalSigns/CurrentBuild/observations-summary.xlsx
@@ -80,7 +80,7 @@
     <t>LOINC#8462-4, SNOMED CT#4481000202108</t>
   </si>
   <si>
-    <t>LOINC#8478-0, SNOMED CT#4491000202105</t>
+    <t>LOINC#8478-0, SNOMED CT#4501000202102</t>
   </si>
   <si>
     <t>SNOMED CT#4461000202102</t>
